--- a/testFile/placeOrder.xlsx
+++ b/testFile/placeOrder.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C6E00D-3A33-45C1-BF51-2808A52021BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A751F-491A-4015-A351-4FAF281F6AE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>BJ19C4365</t>
+    <t>BJ19C4981</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BJ19C1508</t>
+    <t>BJ19C5367</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ19C3515</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -373,6 +377,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testFile/placeOrder.xlsx
+++ b/testFile/placeOrder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A751F-491A-4015-A351-4FAF281F6AE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5849EDFA-AEEF-4F35-9F99-A5661314AFD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="450" windowWidth="12720" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>BJ19C4981</t>
+    <t>BJ19Q0005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BJ19C5367</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>BJ19Q0006</t>
   </si>
   <si>
-    <t>BJ19C3515</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>BJ19Q0007</t>
   </si>
 </sst>
 </file>
@@ -359,7 +357,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
